--- a/biology/Botanique/Sedum_nussbaumerianum/Sedum_nussbaumerianum.xlsx
+++ b/biology/Botanique/Sedum_nussbaumerianum/Sedum_nussbaumerianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sedum nussbaumerianum[1] syn. Sedum adolphi Hamet 1912[2] ou Golden Sedum, est une espèce de plante succulente de la famille des Crassulaceae.
-Elle est originaire de Veracruz au Mexique[2] où elle pousse en symbiose avec une bromeliaceae (Hechtia tillandsioides) sur des parois de roches volcaniques[3]. C'est donc une plante qui a besoin de soleil, d'un sol essentiellement minéral et drainant et de peu de matière organique puisqu'elle ne se nourrit que des feuilles décomposées de H. tillandsioides dans son habitat naturel[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sedum nussbaumerianum syn. Sedum adolphi Hamet 1912 ou Golden Sedum, est une espèce de plante succulente de la famille des Crassulaceae.
+Elle est originaire de Veracruz au Mexique où elle pousse en symbiose avec une bromeliaceae (Hechtia tillandsioides) sur des parois de roches volcaniques. C'est donc une plante qui a besoin de soleil, d'un sol essentiellement minéral et drainant et de peu de matière organique puisqu'elle ne se nourrit que des feuilles décomposées de H. tillandsioides dans son habitat naturel.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de Sedum nussbaumerianum sont charnues, droites, de 3 à 5 cm de long, plutôt plates au-dessus et le dessous, bombé, ressemble à une coque de bateau[3]. Elles ont des tons vert olive et prennent une teinte jaune-orangé bordée de rouge en plein soleil. Chaque feuille a la capacité de prendre racine pour redonner la plante entière[2].
-Sedum nussbaumerianum est buissonnante, elle pousse lentement atteignant une vingtaine de centimètres de haut, pour 50 à 60 cm de largeur. De vieux spécimens naturels atteignent un mètre de large[3].
-Les fleurs parfumées sont en étoile à cinq pétales blancs avec des longues étamines blanches comme leur filet, Elles fleurissent sous forme de pompons au bout des tiges[2],[3],
-Les vieilles tiges de Sedum nussbaumerianum se lignifient et ne font pas de racines aériennes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de Sedum nussbaumerianum sont charnues, droites, de 3 à 5 cm de long, plutôt plates au-dessus et le dessous, bombé, ressemble à une coque de bateau. Elles ont des tons vert olive et prennent une teinte jaune-orangé bordée de rouge en plein soleil. Chaque feuille a la capacité de prendre racine pour redonner la plante entière.
+Sedum nussbaumerianum est buissonnante, elle pousse lentement atteignant une vingtaine de centimètres de haut, pour 50 à 60 cm de largeur. De vieux spécimens naturels atteignent un mètre de large.
+Les fleurs parfumées sont en étoile à cinq pétales blancs avec des longues étamines blanches comme leur filet, Elles fleurissent sous forme de pompons au bout des tiges
+Les vieilles tiges de Sedum nussbaumerianum se lignifient et ne font pas de racines aériennes.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sedum nussbaumerianum a été nommée ainsi en l'honneur de Ernst Nussbaumer (1873-1941), un jardinier en chef suisse du Parc Botanique de Brême et ami de Georg Bitter[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sedum nussbaumerianum a été nommée ainsi en l'honneur de Ernst Nussbaumer (1873-1941), un jardinier en chef suisse du Parc Botanique de Brême et ami de Georg Bitter.
 </t>
         </is>
       </c>
